--- a/data/tle/2019-12-12_CEI.xlsx
+++ b/data/tle/2019-12-12_CEI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrcunning/Projects/bsrte/data/tle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B472A6-8667-DE4D-BDD6-4D3B94403237}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC9F06F-2642-AC48-AD6A-141CFC93883A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="178">
   <si>
     <t>Name</t>
   </si>
@@ -384,9 +384,6 @@
     <t>18</t>
   </si>
   <si>
-    <t>23,6,6,5,21</t>
-  </si>
-  <si>
     <t>11,4</t>
   </si>
   <si>
@@ -495,76 +492,73 @@
     <t>25,4,4</t>
   </si>
   <si>
+    <t>18,5,4,2,2</t>
+  </si>
+  <si>
+    <t>6,3,3</t>
+  </si>
+  <si>
+    <t>16,5</t>
+  </si>
+  <si>
+    <t>23, 7, 1, 1, 2</t>
+  </si>
+  <si>
+    <t>6, 4</t>
+  </si>
+  <si>
+    <t>10, 2</t>
+  </si>
+  <si>
+    <t>18,3,4,3,3</t>
+  </si>
+  <si>
+    <t>19,6,2</t>
+  </si>
+  <si>
+    <t>12,3,2</t>
+  </si>
+  <si>
+    <t>19, 1, 4, 1</t>
+  </si>
+  <si>
+    <t>9, 3, 3</t>
+  </si>
+  <si>
+    <t>15,1,1,5,5,2,2,1</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>22,3,8,1,1,1,3</t>
+  </si>
+  <si>
+    <t>101*</t>
+  </si>
+  <si>
+    <t>(empty)</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>6,2,2,2</t>
+  </si>
+  <si>
+    <t>CEI</t>
+  </si>
+  <si>
+    <t>23,6,6,5</t>
+  </si>
+  <si>
     <t>10,1</t>
   </si>
   <si>
-    <t>9,1,1</t>
-  </si>
-  <si>
-    <t>18,5,4,2,2</t>
-  </si>
-  <si>
-    <t>6,3,3</t>
-  </si>
-  <si>
-    <t>16,5</t>
-  </si>
-  <si>
-    <t>23, 7, 1, 1, 2</t>
-  </si>
-  <si>
-    <t>6, 4</t>
-  </si>
-  <si>
-    <t>10, 2</t>
-  </si>
-  <si>
-    <t>18,3,4,3,3</t>
-  </si>
-  <si>
-    <t>19,6,2</t>
-  </si>
-  <si>
-    <t>12,3,2</t>
-  </si>
-  <si>
-    <t>19, 1, 4, 1</t>
-  </si>
-  <si>
-    <t>9, 3, 3</t>
-  </si>
-  <si>
-    <t>15,1,1,5,5,2,2,1</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>22,3,8,1,1,1,3</t>
-  </si>
-  <si>
     <t>9,3,1</t>
-  </si>
-  <si>
-    <t>8,2,2,1</t>
-  </si>
-  <si>
-    <t>101*</t>
-  </si>
-  <si>
-    <t>(empty)</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>6,2,2,2</t>
-  </si>
-  <si>
-    <t>CEI</t>
   </si>
 </sst>
 </file>
@@ -980,12 +974,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -996,6 +984,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1213,8 +1207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AB21" sqref="AB21:AD25"/>
+    <sheetView tabSelected="1" topLeftCell="W3" workbookViewId="0">
+      <selection activeCell="AE25" sqref="AE25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1315,7 +1309,7 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="55">
+      <c r="B2" s="61">
         <v>43811</v>
       </c>
       <c r="C2" s="49"/>
@@ -1325,7 +1319,7 @@
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="54">
+      <c r="H2" s="60">
         <v>43811</v>
       </c>
       <c r="I2" s="52"/>
@@ -1335,7 +1329,7 @@
       <c r="M2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="54">
+      <c r="N2" s="60">
         <v>43811</v>
       </c>
       <c r="O2" s="52"/>
@@ -1345,7 +1339,7 @@
       <c r="S2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="54">
+      <c r="T2" s="60">
         <v>43811</v>
       </c>
       <c r="U2" s="52"/>
@@ -1355,7 +1349,7 @@
       <c r="Y2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Z2" s="54">
+      <c r="Z2" s="60">
         <v>43811</v>
       </c>
       <c r="AA2" s="52"/>
@@ -1365,7 +1359,7 @@
       <c r="AE2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AF2" s="54">
+      <c r="AF2" s="60">
         <v>43811</v>
       </c>
       <c r="AG2" s="52"/>
@@ -1378,7 +1372,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C3" s="49"/>
       <c r="D3" s="49"/>
@@ -1388,7 +1382,7 @@
         <v>4</v>
       </c>
       <c r="H3" s="51" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="I3" s="52"/>
       <c r="J3" s="52"/>
@@ -1398,7 +1392,7 @@
         <v>4</v>
       </c>
       <c r="N3" s="51" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="O3" s="52"/>
       <c r="P3" s="52"/>
@@ -1408,7 +1402,7 @@
         <v>4</v>
       </c>
       <c r="T3" s="51" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="U3" s="52"/>
       <c r="V3" s="52"/>
@@ -1418,7 +1412,7 @@
         <v>4</v>
       </c>
       <c r="Z3" s="51" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="AA3" s="52"/>
       <c r="AB3" s="52"/>
@@ -1428,7 +1422,7 @@
         <v>4</v>
       </c>
       <c r="AF3" s="51" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="AG3" s="52"/>
       <c r="AH3" s="52"/>
@@ -1439,63 +1433,63 @@
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="56">
+      <c r="B4" s="54">
         <v>139</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="58"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="56"/>
       <c r="G4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="59">
+      <c r="H4" s="57">
         <v>140</v>
       </c>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="61"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="59"/>
       <c r="M4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="59">
+      <c r="N4" s="57">
         <v>141</v>
       </c>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="61"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="59"/>
       <c r="S4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="T4" s="59">
+      <c r="T4" s="57">
         <v>142</v>
       </c>
-      <c r="U4" s="60"/>
-      <c r="V4" s="60"/>
-      <c r="W4" s="60"/>
-      <c r="X4" s="61"/>
+      <c r="U4" s="58"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="58"/>
+      <c r="X4" s="59"/>
       <c r="Y4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Z4" s="59">
+      <c r="Z4" s="57">
         <v>143</v>
       </c>
-      <c r="AA4" s="60"/>
-      <c r="AB4" s="60"/>
-      <c r="AC4" s="60"/>
-      <c r="AD4" s="61"/>
+      <c r="AA4" s="58"/>
+      <c r="AB4" s="58"/>
+      <c r="AC4" s="58"/>
+      <c r="AD4" s="59"/>
       <c r="AE4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AF4" s="59">
+      <c r="AF4" s="57">
         <v>144</v>
       </c>
-      <c r="AG4" s="60"/>
-      <c r="AH4" s="60"/>
-      <c r="AI4" s="60"/>
-      <c r="AJ4" s="61"/>
+      <c r="AG4" s="58"/>
+      <c r="AH4" s="58"/>
+      <c r="AI4" s="58"/>
+      <c r="AJ4" s="59"/>
     </row>
     <row r="5" spans="1:36" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -2692,14 +2686,14 @@
         <v>2</v>
       </c>
       <c r="AD17" s="23" t="s">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="AE17" s="19"/>
       <c r="AF17" s="29" t="s">
         <v>25</v>
       </c>
       <c r="AG17" s="30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AH17" s="19"/>
       <c r="AI17" s="8" t="s">
@@ -2715,14 +2709,14 @@
         <v>36</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="8" t="s">
         <v>36</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G18" s="19"/>
       <c r="H18" s="8" t="s">
@@ -2741,14 +2735,14 @@
         <v>36</v>
       </c>
       <c r="O18" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P18" s="21"/>
       <c r="Q18" s="22">
         <v>3</v>
       </c>
       <c r="R18" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S18" s="19"/>
       <c r="T18" s="8" t="s">
@@ -2769,28 +2763,28 @@
         <v>36</v>
       </c>
       <c r="AA18" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AB18" s="21"/>
       <c r="AC18" s="22">
         <v>3</v>
       </c>
       <c r="AD18" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AE18" s="19"/>
       <c r="AF18" s="8" t="s">
         <v>36</v>
       </c>
       <c r="AG18" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AH18" s="19"/>
       <c r="AI18" s="8" t="s">
         <v>36</v>
       </c>
       <c r="AJ18" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:36" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2799,7 +2793,7 @@
         <v>47</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="8" t="s">
@@ -2813,7 +2807,7 @@
         <v>47</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J19" s="19"/>
       <c r="K19" s="8" t="s">
@@ -2832,49 +2826,49 @@
         <v>4</v>
       </c>
       <c r="R19" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S19" s="19"/>
       <c r="T19" s="8" t="s">
         <v>47</v>
       </c>
       <c r="U19" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="V19" s="19"/>
       <c r="W19" s="8" t="s">
         <v>47</v>
       </c>
       <c r="X19" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Y19" s="18"/>
       <c r="Z19" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AA19" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AB19" s="21"/>
       <c r="AC19" s="22">
         <v>4</v>
       </c>
       <c r="AD19" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AE19" s="19"/>
       <c r="AF19" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AG19" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AH19" s="19"/>
       <c r="AI19" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AJ19" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:36" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2883,21 +2877,21 @@
         <v>54</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="8" t="s">
         <v>54</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G20" s="19"/>
       <c r="H20" s="24" t="s">
         <v>54</v>
       </c>
       <c r="I20" s="32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J20" s="19"/>
       <c r="K20" s="8" t="s">
@@ -2909,14 +2903,14 @@
         <v>54</v>
       </c>
       <c r="O20" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P20" s="26"/>
       <c r="Q20" s="22">
         <v>5</v>
       </c>
       <c r="R20" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="S20" s="19"/>
       <c r="T20" s="24" t="s">
@@ -2930,7 +2924,7 @@
         <v>54</v>
       </c>
       <c r="X20" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Y20" s="18"/>
       <c r="Z20" s="24" t="s">
@@ -2944,7 +2938,7 @@
         <v>5</v>
       </c>
       <c r="AD20" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AE20" s="19"/>
       <c r="AF20" s="24" t="s">
@@ -2958,7 +2952,7 @@
         <v>54</v>
       </c>
       <c r="AJ20" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:36" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2969,10 +2963,10 @@
         <v>9</v>
       </c>
       <c r="C21" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>145</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>146</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>9</v>
@@ -2981,16 +2975,16 @@
         <v>54</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>9</v>
       </c>
       <c r="I21" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="J21" s="8" t="s">
         <v>148</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>149</v>
       </c>
       <c r="K21" s="8" t="s">
         <v>9</v>
@@ -3005,10 +2999,10 @@
         <v>9</v>
       </c>
       <c r="O21" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P21" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q21" s="22">
         <v>1</v>
@@ -3017,16 +3011,16 @@
         <v>18</v>
       </c>
       <c r="S21" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T21" s="8" t="s">
         <v>9</v>
       </c>
       <c r="U21" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="V21" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="W21" s="8" t="s">
         <v>9</v>
@@ -3041,19 +3035,19 @@
         <v>9</v>
       </c>
       <c r="AA21" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB21" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC21" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD21" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE21" s="8" t="s">
         <v>146</v>
-      </c>
-      <c r="AC21" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="AD21" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE21" s="8" t="s">
-        <v>147</v>
       </c>
       <c r="AF21" s="8" t="s">
         <v>9</v>
@@ -3062,7 +3056,7 @@
         <v>112</v>
       </c>
       <c r="AH21" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AI21" s="8" t="s">
         <v>9</v>
@@ -3077,7 +3071,7 @@
         <v>25</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="8" t="s">
@@ -3091,7 +3085,7 @@
         <v>25</v>
       </c>
       <c r="I22" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J22" s="19"/>
       <c r="K22" s="8" t="s">
@@ -3105,7 +3099,7 @@
         <v>25</v>
       </c>
       <c r="O22" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P22" s="21"/>
       <c r="Q22" s="22">
@@ -3119,7 +3113,7 @@
         <v>25</v>
       </c>
       <c r="U22" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="V22" s="19"/>
       <c r="W22" s="8" t="s">
@@ -3133,14 +3127,14 @@
         <v>25</v>
       </c>
       <c r="AA22" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AB22" s="21"/>
       <c r="AC22" s="22" t="s">
-        <v>156</v>
+        <v>25</v>
       </c>
       <c r="AD22" s="22" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="AE22" s="19"/>
       <c r="AF22" s="29" t="s">
@@ -3191,7 +3185,7 @@
         <v>36</v>
       </c>
       <c r="O23" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P23" s="21"/>
       <c r="Q23" s="22">
@@ -3205,7 +3199,7 @@
         <v>36</v>
       </c>
       <c r="U23" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="V23" s="19"/>
       <c r="W23" s="8" t="s">
@@ -3219,14 +3213,14 @@
         <v>36</v>
       </c>
       <c r="AA23" s="16" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AB23" s="21"/>
       <c r="AC23" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD23" s="22" t="s">
         <v>87</v>
-      </c>
-      <c r="AD23" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="AE23" s="19"/>
       <c r="AF23" s="8" t="s">
@@ -3249,21 +3243,21 @@
         <v>47</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="8" t="s">
         <v>47</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G24" s="19"/>
       <c r="H24" s="8" t="s">
         <v>47</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J24" s="19"/>
       <c r="K24" s="8" t="s">
@@ -3277,7 +3271,7 @@
         <v>47</v>
       </c>
       <c r="O24" s="16" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="P24" s="21"/>
       <c r="Q24" s="22">
@@ -3291,7 +3285,7 @@
         <v>47</v>
       </c>
       <c r="U24" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="V24" s="19"/>
       <c r="W24" s="8" t="s">
@@ -3305,7 +3299,7 @@
         <v>47</v>
       </c>
       <c r="AA24" s="16" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AB24" s="21"/>
       <c r="AC24" s="22" t="s">
@@ -3319,7 +3313,7 @@
         <v>47</v>
       </c>
       <c r="AG24" s="9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AH24" s="19"/>
       <c r="AI24" s="8" t="s">
@@ -3335,7 +3329,7 @@
         <v>54</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="8" t="s">
@@ -3349,7 +3343,7 @@
         <v>54</v>
       </c>
       <c r="I25" s="32" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J25" s="19"/>
       <c r="K25" s="8" t="s">
@@ -3363,7 +3357,7 @@
         <v>54</v>
       </c>
       <c r="O25" s="16" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P25" s="26"/>
       <c r="Q25" s="22">
@@ -3377,7 +3371,7 @@
         <v>54</v>
       </c>
       <c r="U25" s="25" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="V25" s="19"/>
       <c r="W25" s="8" t="s">
@@ -3391,14 +3385,14 @@
         <v>54</v>
       </c>
       <c r="AA25" s="16" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AB25" s="26"/>
       <c r="AC25" s="22" t="s">
-        <v>172</v>
+        <v>54</v>
       </c>
       <c r="AD25" s="22" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="AE25" s="19"/>
       <c r="AF25" s="24" t="s">
@@ -3417,7 +3411,7 @@
     </row>
     <row r="26" spans="1:36" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="27" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>9</v>
@@ -3426,14 +3420,14 @@
         <v>47</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F26" s="35"/>
       <c r="G26" s="8" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="H26" s="8" t="s">
         <v>9</v>
@@ -3442,7 +3436,7 @@
         <v>54</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="K26" s="8" t="s">
         <v>9</v>
@@ -3451,23 +3445,23 @@
         <v>47</v>
       </c>
       <c r="M26" s="27" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="N26" s="8" t="s">
         <v>9</v>
       </c>
       <c r="O26" s="36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P26" s="22" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="Q26" s="22">
         <v>1</v>
       </c>
       <c r="R26" s="22"/>
       <c r="S26" s="8" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="T26" s="8" t="s">
         <v>9</v>
@@ -3476,7 +3470,7 @@
         <v>54</v>
       </c>
       <c r="V26" s="8" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="W26" s="8" t="s">
         <v>9</v>
@@ -3485,23 +3479,23 @@
         <v>36</v>
       </c>
       <c r="Y26" s="27" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="Z26" s="8" t="s">
         <v>9</v>
       </c>
       <c r="AA26" s="36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AB26" s="22" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="AC26" s="22">
         <v>1</v>
       </c>
       <c r="AD26" s="22"/>
       <c r="AE26" s="8" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="AF26" s="8" t="s">
         <v>9</v>
@@ -3510,7 +3504,7 @@
         <v>47</v>
       </c>
       <c r="AH26" s="8" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="AI26" s="8" t="s">
         <v>9</v>
@@ -3676,7 +3670,7 @@
         <v>36</v>
       </c>
       <c r="AJ28" s="9" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:36" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3791,7 +3785,7 @@
         <v>54</v>
       </c>
       <c r="O30" s="45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P30" s="42"/>
       <c r="Q30" s="43" t="s">
@@ -5370,6 +5364,8 @@
     <mergeCell ref="T3:X3"/>
     <mergeCell ref="N4:R4"/>
     <mergeCell ref="T4:X4"/>
+    <mergeCell ref="AF1:AJ1"/>
+    <mergeCell ref="AF2:AJ2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="B4:F4"/>
@@ -5380,10 +5376,8 @@
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="T1:X1"/>
-    <mergeCell ref="AF1:AJ1"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="T2:X2"/>
-    <mergeCell ref="AF2:AJ2"/>
     <mergeCell ref="B2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/data/tle/2019-12-12_CEI.xlsx
+++ b/data/tle/2019-12-12_CEI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrcunning/Projects/bsrte/data/tle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC9F06F-2642-AC48-AD6A-141CFC93883A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B364267F-6B1A-0343-B0BC-F32174D2066A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,12 +399,6 @@
     <t>12,1,1,1</t>
   </si>
   <si>
-    <t>11,10,2</t>
-  </si>
-  <si>
-    <t>11,8,3,4,2</t>
-  </si>
-  <si>
     <t>13,3,4</t>
   </si>
   <si>
@@ -426,9 +420,6 @@
     <t>7, 2</t>
   </si>
   <si>
-    <t>18,4,6</t>
-  </si>
-  <si>
     <t>19,11,8</t>
   </si>
   <si>
@@ -559,6 +550,15 @@
   </si>
   <si>
     <t>9,3,1</t>
+  </si>
+  <si>
+    <t>17,10,2</t>
+  </si>
+  <si>
+    <t>18,4</t>
+  </si>
+  <si>
+    <t>19,11,8,3,4,2</t>
   </si>
 </sst>
 </file>
@@ -964,21 +964,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -987,6 +977,16 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1207,8 +1207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W3" workbookViewId="0">
-      <selection activeCell="AE25" sqref="AE25"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1247,63 +1247,63 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57"/>
       <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="53"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="50"/>
       <c r="M1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="51" t="s">
+      <c r="N1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="53"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="50"/>
       <c r="S1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="T1" s="51" t="s">
+      <c r="T1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="53"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="50"/>
       <c r="Y1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="Z1" s="51" t="s">
+      <c r="Z1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="53"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="50"/>
       <c r="AE1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AF1" s="51" t="s">
+      <c r="AF1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="53"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="50"/>
     </row>
     <row r="2" spans="1:36" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1312,184 +1312,184 @@
       <c r="B2" s="61">
         <v>43811</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57"/>
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="60">
+      <c r="H2" s="54">
         <v>43811</v>
       </c>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="53"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="50"/>
       <c r="M2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="60">
+      <c r="N2" s="54">
         <v>43811</v>
       </c>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="53"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="50"/>
       <c r="S2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="60">
+      <c r="T2" s="54">
         <v>43811</v>
       </c>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="53"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="50"/>
       <c r="Y2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Z2" s="60">
+      <c r="Z2" s="54">
         <v>43811</v>
       </c>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="53"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="50"/>
       <c r="AE2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AF2" s="60">
+      <c r="AF2" s="54">
         <v>43811</v>
       </c>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="53"/>
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="50"/>
     </row>
     <row r="3" spans="1:36" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="50"/>
+      <c r="B3" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="57"/>
       <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="51" t="s">
-        <v>174</v>
-      </c>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="53"/>
+      <c r="H3" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="50"/>
       <c r="M3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="51" t="s">
-        <v>174</v>
-      </c>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="53"/>
+      <c r="N3" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="50"/>
       <c r="S3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="51" t="s">
-        <v>174</v>
-      </c>
-      <c r="U3" s="52"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="52"/>
-      <c r="X3" s="53"/>
+      <c r="T3" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="50"/>
       <c r="Y3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Z3" s="51" t="s">
-        <v>174</v>
-      </c>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="52"/>
-      <c r="AC3" s="52"/>
-      <c r="AD3" s="53"/>
+      <c r="Z3" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="50"/>
       <c r="AE3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AF3" s="51" t="s">
-        <v>174</v>
-      </c>
-      <c r="AG3" s="52"/>
-      <c r="AH3" s="52"/>
-      <c r="AI3" s="52"/>
-      <c r="AJ3" s="53"/>
+      <c r="AF3" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="AG3" s="49"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="50"/>
     </row>
     <row r="4" spans="1:36" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="54">
+      <c r="B4" s="58">
         <v>139</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="56"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="60"/>
       <c r="G4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="57">
+      <c r="H4" s="51">
         <v>140</v>
       </c>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="59"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="53"/>
       <c r="M4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="57">
+      <c r="N4" s="51">
         <v>141</v>
       </c>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="59"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="53"/>
       <c r="S4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="T4" s="57">
+      <c r="T4" s="51">
         <v>142</v>
       </c>
-      <c r="U4" s="58"/>
-      <c r="V4" s="58"/>
-      <c r="W4" s="58"/>
-      <c r="X4" s="59"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="53"/>
       <c r="Y4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Z4" s="57">
+      <c r="Z4" s="51">
         <v>143</v>
       </c>
-      <c r="AA4" s="58"/>
-      <c r="AB4" s="58"/>
-      <c r="AC4" s="58"/>
-      <c r="AD4" s="59"/>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="53"/>
       <c r="AE4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AF4" s="57">
+      <c r="AF4" s="51">
         <v>144</v>
       </c>
-      <c r="AG4" s="58"/>
-      <c r="AH4" s="58"/>
-      <c r="AI4" s="58"/>
-      <c r="AJ4" s="59"/>
+      <c r="AG4" s="52"/>
+      <c r="AH4" s="52"/>
+      <c r="AI4" s="52"/>
+      <c r="AJ4" s="53"/>
     </row>
     <row r="5" spans="1:36" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -2686,7 +2686,7 @@
         <v>2</v>
       </c>
       <c r="AD17" s="23" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AE17" s="19"/>
       <c r="AF17" s="29" t="s">
@@ -2763,28 +2763,28 @@
         <v>36</v>
       </c>
       <c r="AA18" s="16" t="s">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="AB18" s="21"/>
       <c r="AC18" s="22">
         <v>3</v>
       </c>
       <c r="AD18" s="23" t="s">
-        <v>125</v>
+        <v>177</v>
       </c>
       <c r="AE18" s="19"/>
       <c r="AF18" s="8" t="s">
         <v>36</v>
       </c>
       <c r="AG18" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AH18" s="19"/>
       <c r="AI18" s="8" t="s">
         <v>36</v>
       </c>
       <c r="AJ18" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:36" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2793,7 +2793,7 @@
         <v>47</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="8" t="s">
@@ -2807,7 +2807,7 @@
         <v>47</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J19" s="19"/>
       <c r="K19" s="8" t="s">
@@ -2826,35 +2826,35 @@
         <v>4</v>
       </c>
       <c r="R19" s="23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="S19" s="19"/>
       <c r="T19" s="8" t="s">
         <v>47</v>
       </c>
       <c r="U19" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="V19" s="19"/>
       <c r="W19" s="8" t="s">
         <v>47</v>
       </c>
       <c r="X19" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Y19" s="18"/>
       <c r="Z19" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AA19" s="16" t="s">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="AB19" s="21"/>
       <c r="AC19" s="22">
         <v>4</v>
       </c>
       <c r="AD19" s="23" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AE19" s="19"/>
       <c r="AF19" s="8" t="s">
@@ -2868,7 +2868,7 @@
         <v>47</v>
       </c>
       <c r="AJ19" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:36" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2877,21 +2877,21 @@
         <v>54</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="8" t="s">
         <v>54</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G20" s="19"/>
       <c r="H20" s="24" t="s">
         <v>54</v>
       </c>
       <c r="I20" s="32" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J20" s="19"/>
       <c r="K20" s="8" t="s">
@@ -2903,14 +2903,14 @@
         <v>54</v>
       </c>
       <c r="O20" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P20" s="26"/>
       <c r="Q20" s="22">
         <v>5</v>
       </c>
       <c r="R20" s="23" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="S20" s="19"/>
       <c r="T20" s="24" t="s">
@@ -2924,7 +2924,7 @@
         <v>54</v>
       </c>
       <c r="X20" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y20" s="18"/>
       <c r="Z20" s="24" t="s">
@@ -2938,7 +2938,7 @@
         <v>5</v>
       </c>
       <c r="AD20" s="23" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AE20" s="19"/>
       <c r="AF20" s="24" t="s">
@@ -2952,7 +2952,7 @@
         <v>54</v>
       </c>
       <c r="AJ20" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:36" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2963,10 +2963,10 @@
         <v>9</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>9</v>
@@ -2975,16 +2975,16 @@
         <v>54</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>9</v>
       </c>
       <c r="I21" s="20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K21" s="8" t="s">
         <v>9</v>
@@ -2999,10 +2999,10 @@
         <v>9</v>
       </c>
       <c r="O21" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P21" s="28" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Q21" s="22">
         <v>1</v>
@@ -3011,16 +3011,16 @@
         <v>18</v>
       </c>
       <c r="S21" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="T21" s="8" t="s">
         <v>9</v>
       </c>
       <c r="U21" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="V21" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="W21" s="8" t="s">
         <v>9</v>
@@ -3035,19 +3035,19 @@
         <v>9</v>
       </c>
       <c r="AA21" s="16" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AB21" s="28" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AC21" s="22" t="s">
         <v>9</v>
       </c>
       <c r="AD21" s="22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AE21" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AF21" s="8" t="s">
         <v>9</v>
@@ -3056,7 +3056,7 @@
         <v>112</v>
       </c>
       <c r="AH21" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AI21" s="8" t="s">
         <v>9</v>
@@ -3071,7 +3071,7 @@
         <v>25</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="8" t="s">
@@ -3085,7 +3085,7 @@
         <v>25</v>
       </c>
       <c r="I22" s="30" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J22" s="19"/>
       <c r="K22" s="8" t="s">
@@ -3099,7 +3099,7 @@
         <v>25</v>
       </c>
       <c r="O22" s="16" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="P22" s="21"/>
       <c r="Q22" s="22">
@@ -3113,7 +3113,7 @@
         <v>25</v>
       </c>
       <c r="U22" s="30" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="V22" s="19"/>
       <c r="W22" s="8" t="s">
@@ -3127,14 +3127,14 @@
         <v>25</v>
       </c>
       <c r="AA22" s="16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AB22" s="21"/>
       <c r="AC22" s="22" t="s">
         <v>25</v>
       </c>
       <c r="AD22" s="22" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AE22" s="19"/>
       <c r="AF22" s="29" t="s">
@@ -3185,7 +3185,7 @@
         <v>36</v>
       </c>
       <c r="O23" s="16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="P23" s="21"/>
       <c r="Q23" s="22">
@@ -3199,7 +3199,7 @@
         <v>36</v>
       </c>
       <c r="U23" s="9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="V23" s="19"/>
       <c r="W23" s="8" t="s">
@@ -3213,7 +3213,7 @@
         <v>36</v>
       </c>
       <c r="AA23" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="AB23" s="21"/>
       <c r="AC23" s="22" t="s">
@@ -3243,21 +3243,21 @@
         <v>47</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="8" t="s">
         <v>47</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G24" s="19"/>
       <c r="H24" s="8" t="s">
         <v>47</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J24" s="19"/>
       <c r="K24" s="8" t="s">
@@ -3271,7 +3271,7 @@
         <v>47</v>
       </c>
       <c r="O24" s="16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="P24" s="21"/>
       <c r="Q24" s="22">
@@ -3285,7 +3285,7 @@
         <v>47</v>
       </c>
       <c r="U24" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="V24" s="19"/>
       <c r="W24" s="8" t="s">
@@ -3299,7 +3299,7 @@
         <v>47</v>
       </c>
       <c r="AA24" s="16" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AB24" s="21"/>
       <c r="AC24" s="22" t="s">
@@ -3313,7 +3313,7 @@
         <v>47</v>
       </c>
       <c r="AG24" s="9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AH24" s="19"/>
       <c r="AI24" s="8" t="s">
@@ -3329,7 +3329,7 @@
         <v>54</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="8" t="s">
@@ -3343,7 +3343,7 @@
         <v>54</v>
       </c>
       <c r="I25" s="32" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J25" s="19"/>
       <c r="K25" s="8" t="s">
@@ -3357,7 +3357,7 @@
         <v>54</v>
       </c>
       <c r="O25" s="16" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P25" s="26"/>
       <c r="Q25" s="22">
@@ -3371,7 +3371,7 @@
         <v>54</v>
       </c>
       <c r="U25" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="V25" s="19"/>
       <c r="W25" s="8" t="s">
@@ -3385,14 +3385,14 @@
         <v>54</v>
       </c>
       <c r="AA25" s="16" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="AB25" s="26"/>
       <c r="AC25" s="22" t="s">
         <v>54</v>
       </c>
       <c r="AD25" s="22" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AE25" s="19"/>
       <c r="AF25" s="24" t="s">
@@ -3411,7 +3411,7 @@
     </row>
     <row r="26" spans="1:36" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="27" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>9</v>
@@ -3420,14 +3420,14 @@
         <v>47</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F26" s="35"/>
       <c r="G26" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H26" s="8" t="s">
         <v>9</v>
@@ -3436,7 +3436,7 @@
         <v>54</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K26" s="8" t="s">
         <v>9</v>
@@ -3445,23 +3445,23 @@
         <v>47</v>
       </c>
       <c r="M26" s="27" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="N26" s="8" t="s">
         <v>9</v>
       </c>
       <c r="O26" s="36" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P26" s="22" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="Q26" s="22">
         <v>1</v>
       </c>
       <c r="R26" s="22"/>
       <c r="S26" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="T26" s="8" t="s">
         <v>9</v>
@@ -3470,7 +3470,7 @@
         <v>54</v>
       </c>
       <c r="V26" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="W26" s="8" t="s">
         <v>9</v>
@@ -3479,23 +3479,23 @@
         <v>36</v>
       </c>
       <c r="Y26" s="27" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="Z26" s="8" t="s">
         <v>9</v>
       </c>
       <c r="AA26" s="36" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AB26" s="22" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AC26" s="22">
         <v>1</v>
       </c>
       <c r="AD26" s="22"/>
       <c r="AE26" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AF26" s="8" t="s">
         <v>9</v>
@@ -3504,7 +3504,7 @@
         <v>47</v>
       </c>
       <c r="AH26" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AI26" s="8" t="s">
         <v>9</v>
@@ -3670,7 +3670,7 @@
         <v>36</v>
       </c>
       <c r="AJ28" s="9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:36" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3785,7 +3785,7 @@
         <v>54</v>
       </c>
       <c r="O30" s="45" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P30" s="42"/>
       <c r="Q30" s="43" t="s">
@@ -5355,17 +5355,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="AF3:AJ3"/>
-    <mergeCell ref="Z4:AD4"/>
-    <mergeCell ref="AF4:AJ4"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="T3:X3"/>
-    <mergeCell ref="N4:R4"/>
-    <mergeCell ref="T4:X4"/>
-    <mergeCell ref="AF1:AJ1"/>
-    <mergeCell ref="AF2:AJ2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="B4:F4"/>
@@ -5379,6 +5368,17 @@
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="T2:X2"/>
     <mergeCell ref="B2:F2"/>
+    <mergeCell ref="AF3:AJ3"/>
+    <mergeCell ref="Z4:AD4"/>
+    <mergeCell ref="AF4:AJ4"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="T3:X3"/>
+    <mergeCell ref="N4:R4"/>
+    <mergeCell ref="T4:X4"/>
+    <mergeCell ref="AF1:AJ1"/>
+    <mergeCell ref="AF2:AJ2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
